--- a/data/sysml2/3/result/HazardElement.xlsx
+++ b/data/sysml2/3/result/HazardElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -577,14 +577,10 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CollideCondition</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -599,7 +595,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -610,7 +606,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -620,12 +616,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -634,7 +630,11 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -642,12 +642,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -655,6 +655,11 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -664,7 +669,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -672,11 +677,6 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -694,6 +694,11 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,7 +708,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -711,11 +716,6 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -733,16 +733,21 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Explode</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -750,25 +755,16 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>ExplodeCondition</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -785,12 +781,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -807,7 +803,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -815,10 +811,14 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CollideCondition</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -844,7 +844,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -854,12 +854,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -868,11 +868,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>DetachedCondition</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -880,12 +876,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -893,11 +889,6 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -907,7 +898,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -915,6 +906,11 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -924,7 +920,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -932,11 +928,6 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -946,7 +937,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -954,6 +945,11 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -963,7 +959,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -971,21 +967,16 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -993,6 +984,11 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1002,7 +998,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1010,11 +1006,6 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1024,7 +1015,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1032,6 +1023,11 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1041,7 +1037,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1049,11 +1045,6 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1063,7 +1054,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1071,6 +1062,11 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1080,7 +1076,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1088,11 +1084,6 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1102,7 +1093,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1110,6 +1101,11 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1119,7 +1115,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1127,11 +1123,6 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1141,7 +1132,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1149,6 +1140,11 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1158,7 +1154,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1166,11 +1162,6 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1180,7 +1171,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>Explode</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1188,16 +1179,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1214,12 +1214,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleLoad</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleLoad</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1654,25 +1654,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -1684,50 +1680,42 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -1739,50 +1727,42 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -1794,25 +1774,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1800,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1833,7 +1809,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -1850,7 +1826,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1859,7 +1835,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1847,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1880,7 +1856,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -1897,7 +1873,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1906,7 +1882,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1894,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1927,7 +1903,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -1944,7 +1920,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1953,7 +1929,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1941,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1974,7 +1950,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -1991,7 +1967,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2000,7 +1976,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2012,7 +1988,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -2021,7 +1997,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2038,7 +2014,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2047,7 +2023,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2035,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2068,7 +2044,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2085,7 +2061,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2094,7 +2070,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2082,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2115,7 +2091,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2132,7 +2108,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2141,7 +2117,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2129,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2162,7 +2138,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2179,7 +2155,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2188,30 +2164,30 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>HazardElement</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -2221,23 +2197,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>HazardElement</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2247,7 +2223,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2256,7 +2232,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2273,7 +2249,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2282,7 +2258,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2270,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2303,7 +2279,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -2320,7 +2296,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -2329,36 +2305,28 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -2370,58 +2338,42 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -2433,58 +2385,42 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -2496,58 +2432,42 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -2559,58 +2479,42 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BreakdownCondition</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -2622,58 +2526,42 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BreakdownCondition</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RollOverCondition</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -2685,58 +2573,42 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RollOverCondition</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AbnormalSpeedCondition</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -2748,58 +2620,42 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AbnormalSpeedCondition</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IIIegalLaneOccupationCondition</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -2811,58 +2667,42 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IIIegalLaneOccupationCondition</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>"正向"</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -2874,29 +2714,21 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>"正向"</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2740,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -2925,7 +2757,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -2942,7 +2774,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -2959,7 +2791,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2971,24 +2803,24 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -3005,24 +2837,654 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CombustionCondition</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CombustionCondition</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BreakdownCondition</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>BreakdownCondition</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>RollOverCondition</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>RollOverCondition</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>AbnormalSpeedCondition</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>AbnormalSpeedCondition</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>IIIegalLaneOccupationCondition</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>IIIegalLaneOccupationCondition</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>DrivingDirection</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>"正向"</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>DrivingDirection</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>"正向"</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>VehiclePosition</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>VehiclePosition</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>VehicleSpeed</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>Real</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>VehicleSpeed</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>EmergencyPeriod</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>"上午"</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>EmergencyPeriod</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>"上午"</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>5235</t>
         </is>
       </c>
     </row>

--- a/data/sysml2/3/result/HazardElement.xlsx
+++ b/data/sysml2/3/result/HazardElement.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -577,10 +577,14 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CollideCondition</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -595,7 +599,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -606,7 +610,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -616,12 +620,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -630,11 +634,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>DetachedCondition</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -642,12 +642,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -655,11 +655,6 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -669,7 +664,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -677,6 +672,11 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -694,11 +694,6 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -708,7 +703,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -716,6 +711,11 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -733,21 +733,16 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -755,6 +750,11 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -772,11 +772,6 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -786,7 +781,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -794,6 +789,11 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -811,19 +811,6 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>CollideCondition</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>DamageCondition</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -833,7 +820,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>Explode</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -844,7 +831,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -854,12 +841,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -876,12 +863,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -893,12 +880,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -915,12 +902,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -932,12 +919,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -954,12 +941,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -976,7 +963,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -998,7 +985,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1054,7 +1041,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1076,7 +1063,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1093,7 +1080,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1115,7 +1102,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1132,7 +1119,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1154,7 +1141,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1171,7 +1158,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Explode</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1180,11 +1167,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ExplodeCondition</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -1192,12 +1175,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1205,21 +1188,16 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1227,6 +1205,11 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1236,7 +1219,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1244,11 +1227,6 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1258,7 +1236,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1266,6 +1244,15 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1275,7 +1262,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1284,7 +1271,11 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -1297,7 +1288,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1305,16 +1296,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1331,12 +1331,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1370,12 +1370,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1387,12 +1387,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1409,12 +1409,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VehiclePart</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VehiclePart</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -1694,7 +1694,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -1788,7 +1788,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2070,7 +2070,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2164,7 +2164,7 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2232,7 +2232,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2258,7 +2258,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -2305,7 +2305,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -2352,7 +2352,7 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -2399,7 +2399,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -2446,7 +2446,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -2493,7 +2493,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -2540,7 +2540,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -2587,7 +2587,7 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -2634,7 +2634,7 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2655,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -2681,7 +2681,7 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>5235</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>

--- a/data/sysml2/3/result/HazardElement.xlsx
+++ b/data/sysml2/3/result/HazardElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -820,7 +820,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Explode</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -831,7 +831,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -841,12 +841,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -855,7 +855,11 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -863,12 +867,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -876,16 +880,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -902,12 +915,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -919,12 +932,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -941,12 +954,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -958,12 +971,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -980,12 +993,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1002,7 +1015,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1024,7 +1037,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1041,7 +1054,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1063,7 +1076,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1080,7 +1093,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>Explode</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1089,7 +1102,11 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1097,12 +1114,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1110,16 +1127,21 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1127,11 +1149,6 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1141,7 +1158,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1149,6 +1166,11 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1158,7 +1180,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1166,11 +1188,6 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1180,7 +1197,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1188,6 +1205,11 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1197,7 +1219,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1205,11 +1227,6 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1219,7 +1236,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1227,6 +1244,11 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1236,7 +1258,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1244,15 +1266,6 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1262,7 +1275,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1271,11 +1284,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>PullotedCondition</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -1288,7 +1297,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1296,25 +1305,16 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>DetachedCondition</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1331,12 +1331,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1370,12 +1370,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1387,12 +1387,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1409,12 +1409,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VehicleLoad</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VehicleLoad</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VehiclePart</t>
+          <t>VehicleLoad</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VehiclePart</t>
+          <t>VehicleLoad</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1654,21 +1654,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>passenger</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -1680,42 +1684,50 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>passenger</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VehicleLoad</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -1727,21 +1739,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VehicleLoad</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1769,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1762,7 +1778,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -1779,7 +1795,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1788,7 +1804,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1816,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1809,7 +1825,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -1826,7 +1842,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1835,7 +1851,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1863,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1856,7 +1872,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -1873,7 +1889,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1882,7 +1898,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1910,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1903,7 +1919,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -1920,7 +1936,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1929,7 +1945,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1957,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1950,7 +1966,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -1967,7 +1983,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1976,7 +1992,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -1988,7 +2004,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1997,7 +2013,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2014,7 +2030,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2023,7 +2039,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2051,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2044,7 +2060,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2061,7 +2077,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2070,7 +2086,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2098,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2091,7 +2107,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2108,7 +2124,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2117,7 +2133,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2145,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2138,7 +2154,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2155,7 +2171,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2164,30 +2180,30 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>HazardElement</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -2197,23 +2213,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>HazardElement</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2223,7 +2239,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2232,7 +2248,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2249,7 +2265,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2258,28 +2274,36 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>"truck"</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -2291,42 +2315,58 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>"truck"</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -2338,42 +2378,58 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -2385,42 +2441,58 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -2432,42 +2504,58 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>BreakdownCondition</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -2479,42 +2567,58 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>BreakdownCondition</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>RollOverCondition</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -2526,42 +2630,58 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>RollOverCondition</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>AbnormalSpeedCondition</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -2573,42 +2693,58 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>AbnormalSpeedCondition</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>IIIegalLaneOccupationCondition</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -2620,42 +2756,58 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>IIIegalLaneOccupationCondition</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>"正向"</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -2667,42 +2819,58 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>"正向"</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>"ND569"</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -2714,21 +2882,29 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>"ND569"</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2740,14 +2916,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -2757,7 +2933,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -2774,14 +2950,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -2791,7 +2967,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2803,24 +2979,24 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>EmergencyPeriod</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"下午"</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -2837,53 +3013,45 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>EmergencyPeriod</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"下午"</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partAssociate</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -2895,596 +3063,21 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partAssociate</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>BreakdownCondition</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>BreakdownCondition</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>RollOverCondition</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>RollOverCondition</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>AbnormalSpeedCondition</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>AbnormalSpeedCondition</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>IIIegalLaneOccupationCondition</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>IIIegalLaneOccupationCondition</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>DrivingDirection</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>"正向"</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>DrivingDirection</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>"正向"</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>VehiclePosition</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>VehiclePosition</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>VehicleSpeed</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>VehicleSpeed</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>车辆</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>EmergencyPeriod</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>"上午"</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>5235</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>EmergencyPeriod</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>"上午"</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
